--- a/addbomtest.xlsx
+++ b/addbomtest.xlsx
@@ -827,7 +827,7 @@
   <x:dimension ref="A1:D2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D5" activeCellId="0" sqref="D5:D5"/>
+      <x:selection activeCell="E11" activeCellId="0" sqref="E11:E11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
